--- a/app/user_data.xlsx
+++ b/app/user_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20" count="20">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26" count="26">
   <x:si>
     <x:t>uid</x:t>
   </x:si>
@@ -70,10 +70,28 @@
     <x:t>0</x:t>
   </x:si>
   <x:si>
-    <x:t>Mon Jul 24 2023 02:34:02 GMT+0900 (대한민국 표준시)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mon Jul 24 2023 02:34:02 GMT+0900 (대한민국 표준시)</x:t>
+    <x:t>Tue Nov 28 2023 02:16:51 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Nov 28 2023 02:23:19 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>685cfdd6-a8b7-4698-8eb6-58b1ea944e3c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12312</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1241</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Nov 28 2023 02:17:03 GMT+0900 (대한민국 표준시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Nov 28 2023 02:17:03 GMT+0900 (대한민국 표준시)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -506,6 +524,47 @@
         <x:v>19</x:v>
       </x:c>
     </x:row>
+    <x:row r="3" spans="1:14">
+      <x:c r="A3" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I3" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="J3" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="K3" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L3" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="M3" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="N3" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
